--- a/StimuliTable-Encoding_3-runs_40-pairs_8-discrete-loc_12345-delays_new.xlsx
+++ b/StimuliTable-Encoding_3-runs_40-pairs_8-discrete-loc_12345-delays_new.xlsx
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N2">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O2">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P2">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q2">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R2">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S2">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="T2">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -575,28 +575,28 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N3">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O3">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P3">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q3">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R3">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S3">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T3">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -619,28 +619,28 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N4">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O4">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P4">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q4">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R4">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S4">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="T4">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -663,28 +663,28 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N5">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O5">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P5">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q5">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R5">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S5">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T5">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -707,28 +707,28 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N6">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O6">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P6">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q6">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R6">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S6">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="T6">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -751,28 +751,28 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N7">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O7">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P7">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q7">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R7">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S7">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T7">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N8">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O8">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P8">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q8">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R8">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S8">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T8">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -839,28 +839,28 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N9">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O9">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="P9">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q9">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R9">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S9">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T9">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -883,28 +883,28 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N10">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O10">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P10">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q10">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R10">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S10">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="T10">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -927,28 +927,28 @@
         <v>4</v>
       </c>
       <c r="M11">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N11">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O11">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="P11">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q11">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R11">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S11">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T11">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -971,28 +971,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N12">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O12">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P12">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q12">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R12">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S12">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T12">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1015,28 +1015,28 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N13">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O13">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P13">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q13">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R13">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S13">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T13">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1059,28 +1059,28 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N14">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O14">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P14">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q14">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R14">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S14">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T14">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1103,28 +1103,28 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N15">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O15">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="P15">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q15">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R15">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S15">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T15">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1147,28 +1147,28 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N16">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O16">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="P16">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q16">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R16">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S16">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T16">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1191,28 +1191,28 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N17">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O17">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P17">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q17">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R17">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S17">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T17">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1235,28 +1235,28 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N18">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O18">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P18">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q18">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R18">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S18">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T18">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1279,28 +1279,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N19">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O19">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P19">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R19">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S19">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T19">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1323,28 +1323,28 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N20">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O20">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P20">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q20">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R20">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S20">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T20">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1367,28 +1367,28 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N21">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O21">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P21">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q21">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R21">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S21">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T21">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N22">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O22">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P22">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q22">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R22">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S22">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T22">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1455,28 +1455,28 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N23">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O23">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P23">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q23">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R23">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S23">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="T23">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1499,28 +1499,28 @@
         <v>5</v>
       </c>
       <c r="M24">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="N24">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O24">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P24">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R24">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S24">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T24">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1543,28 +1543,28 @@
         <v>2</v>
       </c>
       <c r="M25">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="N25">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O25">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P25">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q25">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R25">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S25">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T25">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1587,28 +1587,28 @@
         <v>5</v>
       </c>
       <c r="M26">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N26">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O26">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P26">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R26">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S26">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T26">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1631,28 +1631,28 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N27">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O27">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P27">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q27">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R27">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S27">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="T27">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1675,28 +1675,28 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="N28">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O28">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P28">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q28">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R28">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S28">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T28">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1719,28 +1719,28 @@
         <v>3</v>
       </c>
       <c r="M29">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N29">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O29">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P29">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q29">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R29">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S29">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T29">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1763,28 +1763,28 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="N30">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O30">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P30">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R30">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S30">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T30">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1807,28 +1807,28 @@
         <v>2</v>
       </c>
       <c r="M31">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N31">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O31">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P31">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q31">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R31">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S31">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T31">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1851,28 +1851,28 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N32">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O32">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P32">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q32">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R32">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S32">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T32">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1895,28 +1895,28 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N33">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O33">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P33">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q33">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R33">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S33">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T33">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1939,28 +1939,28 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N34">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O34">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P34">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q34">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R34">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S34">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T34">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1983,28 +1983,28 @@
         <v>4</v>
       </c>
       <c r="M35">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N35">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O35">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="P35">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q35">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="R35">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S35">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T35">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2027,28 +2027,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="N36">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O36">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P36">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q36">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R36">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S36">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T36">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2071,28 +2071,28 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="N37">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O37">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="P37">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q37">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R37">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S37">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T37">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2115,28 +2115,28 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="N38">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O38">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P38">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q38">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R38">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S38">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T38">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2159,28 +2159,28 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N39">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O39">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P39">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q39">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R39">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S39">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T39">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2203,28 +2203,28 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N40">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O40">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="P40">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q40">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="R40">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S40">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T40">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2247,28 +2247,28 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N41">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O41">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P41">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q41">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R41">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S41">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T41">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2291,28 +2291,28 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="N42">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O42">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="P42">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q42">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R42">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S42">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T42">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2335,28 +2335,28 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N43">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O43">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P43">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q43">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R43">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S43">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T43">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2379,28 +2379,28 @@
         <v>2</v>
       </c>
       <c r="M44">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N44">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O44">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="P44">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q44">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R44">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S44">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T44">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2423,28 +2423,28 @@
         <v>5</v>
       </c>
       <c r="M45">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N45">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O45">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P45">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q45">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R45">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S45">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T45">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2467,28 +2467,28 @@
         <v>5</v>
       </c>
       <c r="M46">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N46">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O46">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P46">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q46">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R46">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S46">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T46">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2511,28 +2511,28 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N47">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O47">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="P47">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q47">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R47">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S47">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T47">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2555,28 +2555,28 @@
         <v>1</v>
       </c>
       <c r="M48">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N48">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O48">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="P48">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q48">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R48">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S48">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T48">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2599,28 +2599,28 @@
         <v>3</v>
       </c>
       <c r="M49">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N49">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O49">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P49">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q49">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R49">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S49">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T49">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2643,28 +2643,28 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N50">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O50">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="P50">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q50">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R50">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S50">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T50">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2687,28 +2687,28 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N51">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O51">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P51">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q51">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R51">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S51">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T51">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2731,28 +2731,28 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N52">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O52">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P52">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q52">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R52">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S52">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T52">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2775,28 +2775,28 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N53">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O53">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P53">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q53">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R53">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S53">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T53">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2819,28 +2819,28 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="N54">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O54">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="P54">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q54">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R54">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S54">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="T54">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2863,28 +2863,28 @@
         <v>4</v>
       </c>
       <c r="M55">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N55">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O55">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P55">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q55">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R55">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S55">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="T55">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2907,28 +2907,28 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="N56">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O56">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="P56">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q56">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R56">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S56">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="T56">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2951,28 +2951,28 @@
         <v>4</v>
       </c>
       <c r="M57">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N57">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O57">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P57">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q57">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R57">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S57">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T57">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2995,28 +2995,28 @@
         <v>2</v>
       </c>
       <c r="M58">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N58">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O58">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P58">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q58">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R58">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S58">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T58">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -3039,28 +3039,28 @@
         <v>3</v>
       </c>
       <c r="M59">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N59">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O59">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P59">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q59">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R59">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S59">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T59">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -3083,28 +3083,28 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N60">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O60">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P60">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q60">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R60">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S60">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="T60">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -3127,28 +3127,28 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N61">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O61">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P61">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q61">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R61">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S61">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T61">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -3171,28 +3171,28 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N62">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O62">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P62">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q62">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R62">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S62">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T62">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -3215,28 +3215,28 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N63">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O63">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P63">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q63">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R63">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S63">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T63">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -3259,28 +3259,28 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N64">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O64">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P64">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q64">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R64">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S64">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T64">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -3303,28 +3303,28 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N65">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O65">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P65">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q65">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R65">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S65">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="T65">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -3347,28 +3347,28 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N66">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O66">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="P66">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q66">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="R66">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S66">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T66">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -3391,28 +3391,28 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N67">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O67">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P67">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q67">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R67">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S67">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="T67">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3435,28 +3435,28 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N68">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O68">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="P68">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q68">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="R68">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S68">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T68">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3479,28 +3479,28 @@
         <v>4</v>
       </c>
       <c r="M69">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="N69">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O69">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P69">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q69">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R69">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S69">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T69">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3523,28 +3523,28 @@
         <v>2</v>
       </c>
       <c r="M70">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N70">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O70">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P70">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q70">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R70">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S70">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="T70">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3567,28 +3567,28 @@
         <v>3</v>
       </c>
       <c r="M71">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N71">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O71">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P71">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q71">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="R71">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S71">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T71">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3611,28 +3611,28 @@
         <v>5</v>
       </c>
       <c r="M72">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N72">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O72">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P72">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q72">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R72">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S72">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="T72">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3655,28 +3655,28 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N73">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O73">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P73">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q73">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R73">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S73">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="T73">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3699,28 +3699,28 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="N74">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O74">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P74">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q74">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R74">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S74">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T74">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3743,28 +3743,28 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N75">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O75">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P75">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q75">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="R75">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S75">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T75">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3787,28 +3787,28 @@
         <v>5</v>
       </c>
       <c r="M76">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N76">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O76">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P76">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q76">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R76">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S76">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="T76">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3831,28 +3831,28 @@
         <v>3</v>
       </c>
       <c r="M77">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N77">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O77">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P77">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q77">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R77">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S77">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T77">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3875,28 +3875,28 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N78">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O78">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P78">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q78">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R78">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S78">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="T78">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3919,28 +3919,28 @@
         <v>4</v>
       </c>
       <c r="M79">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="N79">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O79">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P79">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q79">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R79">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S79">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T79">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3963,28 +3963,28 @@
         <v>2</v>
       </c>
       <c r="M80">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N80">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O80">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P80">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q80">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R80">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S80">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T80">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -4007,28 +4007,28 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N81">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O81">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P81">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q81">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R81">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S81">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T81">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -4051,28 +4051,28 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N82">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O82">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P82">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q82">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R82">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S82">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="T82">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -4095,28 +4095,28 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N83">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O83">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P83">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q83">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R83">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S83">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T83">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -4139,28 +4139,28 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="N84">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O84">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P84">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q84">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R84">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S84">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T84">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -4183,28 +4183,28 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N85">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O85">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P85">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q85">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R85">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S85">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T85">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -4227,28 +4227,28 @@
         <v>1</v>
       </c>
       <c r="M86">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="N86">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O86">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P86">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q86">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R86">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S86">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T86">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -4271,28 +4271,28 @@
         <v>2</v>
       </c>
       <c r="M87">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N87">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O87">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P87">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q87">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="R87">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S87">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="T87">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -4315,28 +4315,28 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="N88">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O88">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P88">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q88">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R88">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S88">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T88">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -4359,28 +4359,28 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N89">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O89">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P89">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q89">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R89">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S89">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T89">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -4403,28 +4403,28 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N90">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O90">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P90">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q90">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="R90">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S90">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="T90">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -4447,28 +4447,28 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N91">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O91">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P91">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q91">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R91">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S91">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T91">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -4491,28 +4491,28 @@
         <v>3</v>
       </c>
       <c r="M92">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N92">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O92">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P92">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q92">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R92">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S92">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T92">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -4535,28 +4535,28 @@
         <v>3</v>
       </c>
       <c r="M93">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="N93">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O93">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="P93">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q93">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R93">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S93">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T93">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4579,28 +4579,28 @@
         <v>5</v>
       </c>
       <c r="M94">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N94">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O94">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="P94">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q94">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R94">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S94">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T94">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4623,28 +4623,28 @@
         <v>5</v>
       </c>
       <c r="M95">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N95">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O95">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="P95">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q95">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R95">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S95">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T95">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4667,28 +4667,28 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N96">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O96">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P96">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q96">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R96">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S96">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T96">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4711,28 +4711,28 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="N97">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O97">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="P97">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q97">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R97">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S97">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T97">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4755,28 +4755,28 @@
         <v>4</v>
       </c>
       <c r="M98">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N98">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O98">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P98">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q98">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R98">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S98">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T98">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4799,28 +4799,28 @@
         <v>4</v>
       </c>
       <c r="M99">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N99">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O99">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P99">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q99">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R99">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S99">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T99">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4843,28 +4843,28 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N100">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O100">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="P100">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q100">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R100">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S100">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T100">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4887,28 +4887,28 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N101">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O101">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="P101">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q101">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R101">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S101">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T101">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -4931,28 +4931,28 @@
         <v>2</v>
       </c>
       <c r="M102">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N102">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O102">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P102">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q102">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="R102">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S102">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T102">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -4975,28 +4975,28 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N103">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O103">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P103">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q103">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R103">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S103">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T103">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -5019,28 +5019,28 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N104">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O104">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P104">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q104">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R104">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S104">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T104">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -5063,28 +5063,28 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N105">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O105">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P105">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q105">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="R105">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S105">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T105">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -5107,28 +5107,28 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N106">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O106">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P106">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q106">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R106">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S106">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T106">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -5151,28 +5151,28 @@
         <v>4</v>
       </c>
       <c r="M107">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N107">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O107">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P107">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q107">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R107">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S107">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T107">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -5195,28 +5195,28 @@
         <v>5</v>
       </c>
       <c r="M108">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N108">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O108">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P108">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q108">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R108">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S108">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T108">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -5239,28 +5239,28 @@
         <v>5</v>
       </c>
       <c r="M109">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="N109">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O109">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="P109">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q109">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R109">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S109">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T109">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -5283,28 +5283,28 @@
         <v>2</v>
       </c>
       <c r="M110">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N110">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O110">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P110">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q110">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R110">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S110">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T110">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -5327,28 +5327,28 @@
         <v>4</v>
       </c>
       <c r="M111">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N111">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O111">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P111">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q111">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R111">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S111">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T111">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -5371,28 +5371,28 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N112">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O112">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P112">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q112">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R112">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S112">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T112">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -5415,28 +5415,28 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N113">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O113">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P113">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q113">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R113">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S113">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T113">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -5459,28 +5459,28 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N114">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O114">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P114">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q114">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R114">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S114">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T114">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -5503,28 +5503,28 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="N115">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O115">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="P115">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q115">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R115">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S115">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T115">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -5547,28 +5547,28 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N116">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O116">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P116">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q116">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R116">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S116">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T116">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -5591,28 +5591,28 @@
         <v>3</v>
       </c>
       <c r="M117">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N117">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O117">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="P117">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q117">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="R117">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S117">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T117">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -5635,28 +5635,28 @@
         <v>1</v>
       </c>
       <c r="M118">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="N118">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O118">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="P118">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q118">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="R118">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S118">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T118">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -5679,28 +5679,28 @@
         <v>3</v>
       </c>
       <c r="M119">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="N119">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O119">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P119">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q119">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R119">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S119">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T119">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -5723,28 +5723,28 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="N120">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O120">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="P120">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q120">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="R120">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S120">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T120">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -5767,28 +5767,28 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N121">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O121">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="P121">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q121">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="R121">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S121">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T121">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -5811,28 +5811,28 @@
         <v>2</v>
       </c>
       <c r="M122">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="N122">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O122">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="P122">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q122">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R122">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S122">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T122">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -5855,28 +5855,28 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="N123">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O123">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P123">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q123">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R123">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S123">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T123">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -5899,28 +5899,28 @@
         <v>1</v>
       </c>
       <c r="M124">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="N124">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O124">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P124">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q124">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R124">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S124">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="T124">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -5943,28 +5943,28 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="N125">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O125">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="P125">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q125">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R125">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S125">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T125">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -5987,28 +5987,28 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="N126">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O126">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P126">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q126">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R126">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S126">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="T126">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -6031,28 +6031,28 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N127">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O127">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P127">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q127">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R127">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S127">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T127">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -6075,28 +6075,28 @@
         <v>1</v>
       </c>
       <c r="M128">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="N128">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O128">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P128">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q128">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R128">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S128">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T128">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -6119,28 +6119,28 @@
         <v>3</v>
       </c>
       <c r="M129">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N129">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O129">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="P129">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q129">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R129">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S129">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T129">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -6163,28 +6163,28 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="N130">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O130">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P130">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q130">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R130">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S130">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T130">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -6207,28 +6207,28 @@
         <v>2</v>
       </c>
       <c r="M131">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N131">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O131">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="P131">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q131">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R131">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S131">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T131">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -6251,28 +6251,28 @@
         <v>3</v>
       </c>
       <c r="M132">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N132">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O132">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P132">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q132">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R132">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S132">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T132">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -6295,28 +6295,28 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N133">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O133">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="P133">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q133">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R133">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S133">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T133">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -6339,28 +6339,28 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N134">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O134">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="P134">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q134">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R134">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S134">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T134">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -6383,28 +6383,28 @@
         <v>1</v>
       </c>
       <c r="M135">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N135">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O135">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P135">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q135">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R135">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S135">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T135">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -6427,28 +6427,28 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N136">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O136">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P136">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q136">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R136">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S136">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T136">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -6471,28 +6471,28 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N137">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O137">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P137">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q137">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R137">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S137">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T137">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -6515,28 +6515,28 @@
         <v>5</v>
       </c>
       <c r="M138">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N138">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O138">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P138">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q138">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R138">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S138">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T138">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -6559,28 +6559,28 @@
         <v>5</v>
       </c>
       <c r="M139">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N139">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O139">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P139">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q139">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R139">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S139">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T139">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -6603,28 +6603,28 @@
         <v>2</v>
       </c>
       <c r="M140">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="N140">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O140">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P140">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q140">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R140">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S140">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T140">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -6647,28 +6647,28 @@
         <v>4</v>
       </c>
       <c r="M141">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N141">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O141">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P141">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q141">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="R141">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S141">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T141">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -6691,28 +6691,28 @@
         <v>4</v>
       </c>
       <c r="M142">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N142">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O142">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P142">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q142">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R142">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S142">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="T142">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -6735,28 +6735,28 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="N143">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O143">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P143">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q143">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R143">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S143">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T143">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -6779,28 +6779,28 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N144">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O144">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P144">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q144">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R144">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S144">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T144">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -6823,28 +6823,28 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N145">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O145">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P145">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q145">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R145">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S145">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T145">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -6867,28 +6867,28 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="N146">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O146">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P146">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q146">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="R146">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S146">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T146">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -6911,28 +6911,28 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N147">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O147">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P147">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q147">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R147">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S147">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="T147">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -6955,28 +6955,28 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N148">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O148">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P148">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q148">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R148">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S148">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T148">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -6999,28 +6999,28 @@
         <v>3</v>
       </c>
       <c r="M149">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N149">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O149">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P149">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q149">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R149">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S149">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T149">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -7043,28 +7043,28 @@
         <v>1</v>
       </c>
       <c r="M150">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N150">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O150">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P150">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q150">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="R150">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S150">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T150">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -7087,28 +7087,28 @@
         <v>2</v>
       </c>
       <c r="M151">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N151">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O151">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P151">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q151">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R151">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S151">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T151">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -7131,28 +7131,28 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N152">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O152">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P152">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q152">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="R152">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S152">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T152">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -7175,28 +7175,28 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N153">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O153">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P153">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q153">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R153">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S153">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T153">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -7219,28 +7219,28 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N154">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O154">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P154">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q154">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R154">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S154">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T154">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -7263,28 +7263,28 @@
         <v>3</v>
       </c>
       <c r="M155">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="N155">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O155">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="P155">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q155">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R155">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S155">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T155">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -7307,28 +7307,28 @@
         <v>1</v>
       </c>
       <c r="M156">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="N156">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O156">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="P156">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q156">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R156">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S156">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="T156">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -7351,28 +7351,28 @@
         <v>5</v>
       </c>
       <c r="M157">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N157">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O157">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P157">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q157">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R157">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S157">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T157">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -7395,28 +7395,28 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="N158">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O158">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="P158">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q158">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R158">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S158">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="T158">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -7439,28 +7439,28 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="N159">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O159">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="P159">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q159">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R159">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S159">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T159">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -7483,28 +7483,28 @@
         <v>4</v>
       </c>
       <c r="M160">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="N160">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O160">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P160">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q160">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R160">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S160">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="T160">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -7527,28 +7527,28 @@
         <v>4</v>
       </c>
       <c r="M161">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="N161">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O161">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="P161">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q161">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="R161">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S161">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T161">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -7571,28 +7571,28 @@
         <v>5</v>
       </c>
       <c r="M162">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N162">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O162">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P162">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q162">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R162">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S162">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="T162">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -7615,28 +7615,28 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N163">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O163">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P163">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q163">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R163">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S163">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T163">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -7659,28 +7659,28 @@
         <v>2</v>
       </c>
       <c r="M164">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N164">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O164">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P164">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q164">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R164">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S164">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T164">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -7703,28 +7703,28 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="N165">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O165">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P165">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q165">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R165">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S165">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="T165">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -7747,28 +7747,28 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="N166">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O166">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="P166">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q166">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="R166">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S166">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T166">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -7791,28 +7791,28 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N167">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O167">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P167">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q167">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R167">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S167">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T167">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -7835,28 +7835,28 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N168">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O168">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P168">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q168">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R168">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S168">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="T168">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -7879,28 +7879,28 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N169">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O169">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P169">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q169">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R169">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S169">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T169">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -7923,28 +7923,28 @@
         <v>1</v>
       </c>
       <c r="M170">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N170">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O170">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P170">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q170">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R170">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S170">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T170">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -7967,28 +7967,28 @@
         <v>4</v>
       </c>
       <c r="M171">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N171">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O171">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P171">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q171">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R171">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S171">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T171">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -8011,28 +8011,28 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N172">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O172">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P172">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q172">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R172">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S172">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="T172">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -8055,28 +8055,28 @@
         <v>3</v>
       </c>
       <c r="M173">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="N173">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O173">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="P173">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q173">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R173">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S173">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T173">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -8099,28 +8099,28 @@
         <v>3</v>
       </c>
       <c r="M174">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="N174">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O174">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P174">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q174">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="R174">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S174">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T174">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -8143,28 +8143,28 @@
         <v>4</v>
       </c>
       <c r="M175">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="N175">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O175">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P175">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q175">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="R175">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S175">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="T175">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -8187,28 +8187,28 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N176">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O176">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P176">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q176">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R176">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S176">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T176">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -8231,28 +8231,28 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="N177">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O177">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="P177">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q177">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R177">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S177">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T177">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -8275,28 +8275,28 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="N178">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O178">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="P178">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q178">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="R178">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S178">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T178">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -8319,28 +8319,28 @@
         <v>5</v>
       </c>
       <c r="M179">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="N179">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O179">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P179">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q179">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="R179">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S179">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T179">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -8363,28 +8363,28 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="N180">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O180">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P180">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q180">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="R180">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S180">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="T180">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -8407,28 +8407,28 @@
         <v>1</v>
       </c>
       <c r="M181">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N181">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O181">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P181">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q181">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="R181">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S181">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T181">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -8451,28 +8451,28 @@
         <v>5</v>
       </c>
       <c r="M182">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N182">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O182">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="P182">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q182">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R182">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S182">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T182">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -8495,28 +8495,28 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="N183">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O183">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="P183">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q183">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="R183">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S183">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T183">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -8539,28 +8539,28 @@
         <v>2</v>
       </c>
       <c r="M184">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="N184">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O184">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P184">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q184">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="R184">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S184">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="T184">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -8583,28 +8583,28 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="N185">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O185">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P185">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q185">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="R185">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S185">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="T185">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -8627,28 +8627,28 @@
         <v>2</v>
       </c>
       <c r="M186">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N186">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O186">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P186">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q186">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R186">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S186">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T186">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -8671,28 +8671,28 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="N187">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O187">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P187">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q187">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="R187">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S187">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="T187">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -8715,28 +8715,28 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N188">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O188">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="P188">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q188">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="R188">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S188">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T188">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -8759,28 +8759,28 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>-225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N189">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O189">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P189">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q189">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="R189">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S189">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="T189">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -8803,28 +8803,28 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N190">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O190">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P190">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q190">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R190">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S190">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T190">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -8847,28 +8847,28 @@
         <v>2</v>
       </c>
       <c r="M191">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N191">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O191">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P191">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q191">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R191">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S191">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T191">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -8891,28 +8891,28 @@
         <v>5</v>
       </c>
       <c r="M192">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N192">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O192">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="P192">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q192">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R192">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S192">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T192">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -8935,28 +8935,28 @@
         <v>5</v>
       </c>
       <c r="M193">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="N193">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O193">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P193">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q193">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="R193">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S193">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T193">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -8979,28 +8979,28 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="N194">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O194">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P194">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q194">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="R194">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S194">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T194">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -9023,28 +9023,28 @@
         <v>1</v>
       </c>
       <c r="M195">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N195">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O195">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P195">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q195">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R195">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S195">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T195">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -9067,28 +9067,28 @@
         <v>4</v>
       </c>
       <c r="M196">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="N196">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O196">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P196">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q196">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="R196">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S196">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T196">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -9111,28 +9111,28 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>-225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N197">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O197">
-        <v>-225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P197">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q197">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R197">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S197">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T197">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -9155,28 +9155,28 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N198">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O198">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="P198">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q198">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="R198">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S198">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T198">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -9199,28 +9199,28 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="N199">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O199">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P199">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="R199">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S199">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T199">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -9243,28 +9243,28 @@
         <v>2</v>
       </c>
       <c r="M200">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N200">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O200">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P200">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q200">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="R200">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S200">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T200">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -9287,28 +9287,28 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="N201">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O201">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="P201">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q201">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="R201">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S201">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="T201">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -9331,28 +9331,28 @@
         <v>3</v>
       </c>
       <c r="M202">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N202">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O202">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P202">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q202">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R202">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S202">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T202">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -9375,28 +9375,28 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>-375</v>
+        <v>0.234375</v>
       </c>
       <c r="N203">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O203">
-        <v>-225</v>
+        <v>0.078125</v>
       </c>
       <c r="P203">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q203">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="R203">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S203">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T203">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -9419,28 +9419,28 @@
         <v>3</v>
       </c>
       <c r="M204">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="N204">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O204">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P204">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q204">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R204">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S204">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T204">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -9463,28 +9463,28 @@
         <v>4</v>
       </c>
       <c r="M205">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N205">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O205">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P205">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q205">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R205">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S205">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T205">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -9507,28 +9507,28 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N206">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O206">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="P206">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q206">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R206">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S206">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T206">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -9551,28 +9551,28 @@
         <v>1</v>
       </c>
       <c r="M207">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N207">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O207">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P207">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q207">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R207">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S207">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T207">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -9595,28 +9595,28 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="N208">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O208">
-        <v>-75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P208">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q208">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R208">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S208">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T208">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -9639,28 +9639,28 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N209">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O209">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P209">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q209">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="R209">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S209">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T209">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -9683,28 +9683,28 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N210">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O210">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P210">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q210">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="R210">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S210">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T210">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -9727,28 +9727,28 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N211">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O211">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P211">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q211">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R211">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S211">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T211">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -9771,28 +9771,28 @@
         <v>2</v>
       </c>
       <c r="M212">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="N212">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O212">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="P212">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q212">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R212">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S212">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T212">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -9815,28 +9815,28 @@
         <v>2</v>
       </c>
       <c r="M213">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N213">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O213">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P213">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q213">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R213">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S213">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T213">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -9859,28 +9859,28 @@
         <v>3</v>
       </c>
       <c r="M214">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N214">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O214">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P214">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q214">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R214">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S214">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T214">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -9903,28 +9903,28 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="N215">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O215">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="P215">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q215">
-        <v>375</v>
+        <v>0.234375</v>
       </c>
       <c r="R215">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S215">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T215">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -9947,28 +9947,28 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N216">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O216">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="P216">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q216">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R216">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S216">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T216">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -9991,28 +9991,28 @@
         <v>3</v>
       </c>
       <c r="M217">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N217">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O217">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P217">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q217">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R217">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S217">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T217">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -10035,28 +10035,28 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N218">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O218">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="P218">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q218">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R218">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S218">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T218">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -10079,28 +10079,28 @@
         <v>5</v>
       </c>
       <c r="M219">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="N219">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O219">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="P219">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q219">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R219">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S219">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T219">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -10123,28 +10123,28 @@
         <v>1</v>
       </c>
       <c r="M220">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="N220">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O220">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P220">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="R220">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S220">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T220">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -10167,28 +10167,28 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N221">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O221">
-        <v>75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P221">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q221">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R221">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S221">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="T221">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -10211,28 +10211,28 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="N222">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O222">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P222">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="R222">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S222">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T222">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -10255,28 +10255,28 @@
         <v>4</v>
       </c>
       <c r="M223">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N223">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O223">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="P223">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q223">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="R223">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S223">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="T223">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -10299,28 +10299,28 @@
         <v>5</v>
       </c>
       <c r="M224">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N224">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O224">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P224">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q224">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R224">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S224">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T224">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -10343,28 +10343,28 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>-225</v>
+        <v>0.390625</v>
       </c>
       <c r="N225">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O225">
-        <v>-375</v>
+        <v>0.390625</v>
       </c>
       <c r="P225">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q225">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R225">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S225">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T225">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -10387,28 +10387,28 @@
         <v>4</v>
       </c>
       <c r="M226">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="N226">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O226">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P226">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q226">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R226">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S226">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T226">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -10431,28 +10431,28 @@
         <v>1</v>
       </c>
       <c r="M227">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N227">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O227">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P227">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q227">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R227">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S227">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="T227">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -10475,28 +10475,28 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="N228">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O228">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="P228">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q228">
-        <v>375</v>
+        <v>0.078125</v>
       </c>
       <c r="R228">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S228">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="T228">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -10519,28 +10519,28 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N229">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O229">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P229">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q229">
-        <v>375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R229">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S229">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="T229">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -10563,28 +10563,28 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="N230">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O230">
-        <v>-75</v>
+        <v>-0.234375</v>
       </c>
       <c r="P230">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q230">
-        <v>-75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R230">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S230">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T230">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -10607,28 +10607,28 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="N231">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O231">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P231">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q231">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R231">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S231">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T231">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -10651,28 +10651,28 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N232">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O232">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P232">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R232">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S232">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T232">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -10695,28 +10695,28 @@
         <v>4</v>
       </c>
       <c r="M233">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N233">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O233">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P233">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q233">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R233">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S233">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="T233">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -10739,28 +10739,28 @@
         <v>4</v>
       </c>
       <c r="M234">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N234">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O234">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P234">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q234">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R234">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S234">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T234">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -10783,28 +10783,28 @@
         <v>5</v>
       </c>
       <c r="M235">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="N235">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O235">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P235">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q235">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R235">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S235">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T235">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -10827,28 +10827,28 @@
         <v>5</v>
       </c>
       <c r="M236">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="N236">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O236">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P236">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q236">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="R236">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S236">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T236">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -10871,28 +10871,28 @@
         <v>2</v>
       </c>
       <c r="M237">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N237">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O237">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P237">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="R237">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S237">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T237">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -10915,28 +10915,28 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>225</v>
+        <v>-0.078125</v>
       </c>
       <c r="N238">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O238">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P238">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q238">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="R238">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S238">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="T238">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -10959,28 +10959,28 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="N239">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O239">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P239">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q239">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="R239">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S239">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T239">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -11003,28 +11003,28 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N240">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O240">
-        <v>-75</v>
+        <v>0.390625</v>
       </c>
       <c r="P240">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="R240">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S240">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T240">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -11047,28 +11047,28 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="N241">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O241">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P241">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q241">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="R241">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S241">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T241">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -11091,28 +11091,28 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="N242">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O242">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="P242">
-        <v>225</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="R242">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S242">
-        <v>375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T242">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -11135,28 +11135,28 @@
         <v>3</v>
       </c>
       <c r="M243">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N243">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O243">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P243">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="R243">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S243">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T243">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -11179,28 +11179,28 @@
         <v>1</v>
       </c>
       <c r="M244">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="N244">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O244">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="P244">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q244">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="R244">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S244">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T244">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -11223,28 +11223,28 @@
         <v>3</v>
       </c>
       <c r="M245">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N245">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O245">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P245">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R245">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S245">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T245">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -11267,28 +11267,28 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="N246">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O246">
-        <v>225</v>
+        <v>0.078125</v>
       </c>
       <c r="P246">
-        <v>-75</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q246">
-        <v>225</v>
+        <v>0.234375</v>
       </c>
       <c r="R246">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S246">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="T246">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -11311,28 +11311,28 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>75</v>
+        <v>0.078125</v>
       </c>
       <c r="N247">
-        <v>75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="O247">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="P247">
-        <v>225</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q247">
-        <v>75</v>
+        <v>0.234375</v>
       </c>
       <c r="R247">
-        <v>-75</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S247">
-        <v>-375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T247">
-        <v>-225</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -11355,28 +11355,28 @@
         <v>2</v>
       </c>
       <c r="M248">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N248">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O248">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P248">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q248">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R248">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S248">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T248">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -11399,28 +11399,28 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>-75</v>
+        <v>0.078125</v>
       </c>
       <c r="N249">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O249">
-        <v>-225</v>
+        <v>0.234375</v>
       </c>
       <c r="P249">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q249">
-        <v>75</v>
+        <v>-0.078125</v>
       </c>
       <c r="R249">
-        <v>-225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S249">
-        <v>375</v>
+        <v>-0.390625</v>
       </c>
       <c r="T249">
-        <v>225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -11443,28 +11443,28 @@
         <v>1</v>
       </c>
       <c r="M250">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N250">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O250">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P250">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q250">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="R250">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S250">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="T250">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -11487,28 +11487,28 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="N251">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O251">
-        <v>-375</v>
+        <v>-0.234375</v>
       </c>
       <c r="P251">
-        <v>225</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q251">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="R251">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S251">
-        <v>375</v>
+        <v>0.390625</v>
       </c>
       <c r="T251">
-        <v>75</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -11531,28 +11531,28 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>75</v>
+        <v>0.390625</v>
       </c>
       <c r="N252">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="O252">
-        <v>-75</v>
+        <v>0.234375</v>
       </c>
       <c r="P252">
-        <v>75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q252">
-        <v>225</v>
+        <v>0.390625</v>
       </c>
       <c r="R252">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S252">
-        <v>-375</v>
+        <v>-0.078125</v>
       </c>
       <c r="T252">
-        <v>-225</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -11575,54 +11575,54 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N253">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O253">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P253">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q253">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R253">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S253">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T253">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="254" spans="1:20">
       <c r="M254">
-        <v>225</v>
+        <v>-0.390625</v>
       </c>
       <c r="N254">
-        <v>-75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="O254">
-        <v>225</v>
+        <v>-0.234375</v>
       </c>
       <c r="P254">
-        <v>75</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q254">
-        <v>75</v>
+        <v>-0.390625</v>
       </c>
       <c r="R254">
-        <v>-75</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S254">
-        <v>-375</v>
+        <v>0.078125</v>
       </c>
       <c r="T254">
-        <v>-225</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
   </sheetData>
